--- a/Assets/Sample.xlsx
+++ b/Assets/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\client\git\unity\ImportXLS\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA045103-0E31-4CB4-BBF1-18623A61A5AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF2FB83-9305-4060-A32D-FA3E0491B7ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29505" yWindow="945" windowWidth="28800" windowHeight="19170" xr2:uid="{B0A21C9F-54F9-4C67-80F6-AAC270F757D2}"/>
+    <workbookView xWindow="-29505" yWindow="945" windowWidth="28800" windowHeight="19170" activeTab="1" xr2:uid="{B0A21C9F-54F9-4C67-80F6-AAC270F757D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="7" r:id="rId1"/>
@@ -84,13 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[[必須]]</t>
-    <rPh sb="2" eb="4">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[[enum]]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -99,13 +92,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[[配列]]</t>
-    <rPh sb="2" eb="4">
-      <t>ハイレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[GLOBAL_ENUM]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -195,6 +181,14 @@
   </si>
   <si>
     <t>enum:Global.eCity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[[Array]]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[[Required]]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -275,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -283,6 +277,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -292,7 +301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,12 +311,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +318,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,7 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67814ADA-FB17-4E57-8DBB-3F6D9605453E}">
   <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -646,14 +661,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="6" t="s">
-        <v>18</v>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
@@ -666,40 +681,40 @@
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
@@ -712,28 +727,28 @@
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -746,221 +761,225 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482FC82B-62E1-4C6C-85BC-BB67B00BD34B}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:I21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="4" width="14.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="6">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.85</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F6" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E7" s="6">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
     </row>
